--- a/Data/copy.xlsx
+++ b/Data/copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14760"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,186 +29,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>2D函数</t>
   </si>
   <si>
-    <t>最优值</t>
-  </si>
-  <si>
-    <t>标准差</t>
-  </si>
-  <si>
-    <t>特点</t>
+    <t>原始序列相对全</t>
+  </si>
+  <si>
+    <t>序列3相对全局</t>
+  </si>
+  <si>
+    <t>输出3相对全局</t>
+  </si>
+  <si>
+    <t>序列3相对原始序</t>
+  </si>
+  <si>
+    <t>输出3相对原始序</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>局最优值损失率</t>
+  </si>
+  <si>
+    <t>最优值损失率</t>
+  </si>
+  <si>
+    <t>列最优值损失率</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>sphere function,unimodal,presumably the most easy continuous domain ssearch problem</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
-    <t>Globally quadratic and ill-conditioned(about 106) function with smooth local irregularities.Conditioning is about 106</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
-    <t>Highly multimodal function with a comparatively regular structure for the placement of the optima.</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
-    <t>Highly multimodal function with a structured but highly asymmetric placement of the optima.</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
-    <t>Purely linear function,solution is on the domain boundary</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
-    <t>Unimodal,highly asymmetric function,</t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
-    <t>unimodal, non-separable, conditioning is about 100.The function consists of many plateaus of different sizes.</t>
-  </si>
-  <si>
     <t>F8</t>
   </si>
   <si>
-    <t>(Rosenbrock function) in larger dimensions the function has a local optimum with an attraction volume of about 25%</t>
-  </si>
-  <si>
     <t>F9</t>
   </si>
   <si>
-    <t>rotated version of the previously defined f8.</t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
-    <t>rotated version of the previously defined f2.</t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
-    <t>A single direction in search space is a 1000 times more sensitive than all others.Conditioning is about 106</t>
-  </si>
-  <si>
     <t>F12</t>
   </si>
   <si>
-    <t>conditioning is about 106, rotated, unimodal</t>
-  </si>
-  <si>
     <t>F13</t>
   </si>
   <si>
-    <t>Resembles f12 with a non-differentiable bottom of valley</t>
-  </si>
-  <si>
     <t>F14</t>
   </si>
   <si>
-    <t>The sensitivies of the zi-variables become more and more different when approaching the optimum</t>
-  </si>
-  <si>
     <t>F15</t>
   </si>
   <si>
-    <t>Prototypical highly multimodal function which has originally a very regular and symmetric structure for the placement of the optima.</t>
-  </si>
-  <si>
     <t>F16</t>
   </si>
   <si>
-    <t>Highly rugged and moderately repetitive landscape, where the global optimum is not unique.</t>
-  </si>
-  <si>
     <t>F17</t>
   </si>
   <si>
-    <t>A highly multimodal function where frequency and amplitude of the modulation vary.Conditioning is low</t>
-  </si>
-  <si>
     <t>F18</t>
   </si>
   <si>
-    <t>Moderately ill-conditioned counterpart to f17</t>
-  </si>
-  <si>
     <t>F19</t>
   </si>
   <si>
-    <t>Resembling the Rosenbrock function in a highly multimodal way.</t>
-  </si>
-  <si>
     <t>F20</t>
   </si>
   <si>
-    <t>The most prominent 2D minima are located comparatively close to the corners of the unpenalized search area.</t>
-  </si>
-  <si>
     <t>F21</t>
   </si>
   <si>
-    <t>The function consists of 101 optima with position and height being unrelated and randomly chosen.</t>
-  </si>
-  <si>
     <t>F22</t>
   </si>
   <si>
-    <t>The function consists of 21 optima with position and height being unrelated and randomly chosen.Conditioning is about 1000</t>
-  </si>
-  <si>
     <t>F23</t>
   </si>
   <si>
-    <t>Highly rugged and highly repetitive function with more than 10D global optima.</t>
-  </si>
-  <si>
     <t>F24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Highly multimodal function with two funnels.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -678,151 +616,142 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1135,370 +1064,538 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="12.625"/>
-    <col min="4" max="4" width="177.375" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>79.48</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12.57</v>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>66.95</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10044455.67</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>77.66</v>
-      </c>
-      <c r="C4" s="2">
-        <v>418.57</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
-        <v>77.66</v>
-      </c>
-      <c r="C5" s="2">
-        <v>171.86</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="1">
+        <v>0.0571</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4531</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.597</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.369</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.5071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
-        <v>66.71</v>
-      </c>
-      <c r="C6" s="2">
-        <v>29.02</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B5" s="1">
+        <v>0.1022</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.084</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2781</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.0132</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="1">
+        <v>0.0501</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0408</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1819</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.0085</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.1262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
-        <v>65.87</v>
-      </c>
-      <c r="C7" s="2">
-        <v>237396.11</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>0.0152</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0258</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.0345</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.0105</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
-        <v>92.94</v>
-      </c>
-      <c r="C8" s="2">
-        <v>431.55</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" s="1">
+        <v>0.0008</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0008</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.0018</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1">
+        <v>0.0007</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.0175</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.0013</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.0168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
-        <v>98.62</v>
-      </c>
-      <c r="C9" s="2">
-        <v>46480.79</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B11" s="1">
+        <v>0.0012</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0069</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.0366</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.0057</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.0354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.413</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12.8236</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.2507</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11.334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2">
-        <v>65.61</v>
-      </c>
-      <c r="C10" s="2">
-        <v>21715.05</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B13" s="1">
+        <v>0.085</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.4875</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.1952</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.386</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6.5681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="1">
+        <v>16.4598</v>
+      </c>
+      <c r="C14" s="1">
+        <v>218.4061</v>
+      </c>
+      <c r="D14" s="1">
+        <v>29072.3496</v>
+      </c>
+      <c r="E14" s="1">
+        <v>29.0592</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12095.4608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
-        <v>59.13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9634378.45</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B15" s="1">
+        <v>0.0096</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0056</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.0178</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.0038</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.0081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="B16" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.0002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
-        <v>76.27</v>
-      </c>
-      <c r="C12" s="2">
-        <v>21241083.28</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B17" s="1">
+        <v>0.0526</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.056</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.233</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.0036</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="B18" s="1">
+        <v>0.0074</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.006</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.2655</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.0014</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.2571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2">
-        <v>56.61</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9607260658.85</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B19" s="1">
+        <v>0.0052</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0038</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.0443</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.0014</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B20" s="1">
+        <v>0.0076</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.006</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.1146</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-0.0016</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2">
-        <v>68.42</v>
-      </c>
-      <c r="C14" s="2">
-        <v>449.99</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B21" s="1">
+        <v>0.0025</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.1095</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.0005</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.1068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B22" s="1">
+        <v>0.0164</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0241</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.0511</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0076</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.0341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2">
-        <v>77.31</v>
-      </c>
-      <c r="C15" s="2">
-        <v>41.04</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B23" s="1">
+        <v>0.0007</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0005</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.0014</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-0.0002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="B24" s="1">
+        <v>0.0046</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.0075</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-0.0006</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
-        <v>70.03</v>
-      </c>
-      <c r="C16" s="2">
-        <v>521.74</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B25" s="1">
+        <v>0.0448</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0453</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.5064</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.4424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>71.35</v>
-      </c>
-      <c r="C17" s="2">
-        <v>79.07</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2">
-        <v>69.83</v>
-      </c>
-      <c r="C18" s="4">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2">
-        <v>119.54</v>
-      </c>
-      <c r="C19" s="2">
-        <v>308.17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2">
-        <v>71.69</v>
-      </c>
-      <c r="C20" s="2">
-        <v>74.72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2">
-        <v>71.29</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45818.02</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2">
-        <v>124.08</v>
-      </c>
-      <c r="C22" s="2">
-        <v>12.21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2">
-        <v>51.57</v>
-      </c>
-      <c r="C23" s="2">
-        <v>24.05</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="2">
-        <v>85.39</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20.12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="4">
-        <v>93.3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>18.18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
+      <c r="B26" s="1">
+        <v>0.0511</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0456</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.2733</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-0.0049</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.212</v>
       </c>
     </row>
   </sheetData>

--- a/Data/copy.xlsx
+++ b/Data/copy.xlsx
@@ -29,36 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>2D函数</t>
-  </si>
-  <si>
-    <t>原始序列相对全</t>
-  </si>
-  <si>
-    <t>序列3相对全局</t>
-  </si>
-  <si>
-    <t>输出3相对全局</t>
-  </si>
-  <si>
-    <t>序列3相对原始序</t>
-  </si>
-  <si>
-    <t>输出3相对原始序</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>局最优值损失率</t>
-  </si>
-  <si>
-    <t>最优值损失率</t>
-  </si>
-  <si>
-    <t>列最优值损失率</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>total vs obs</t>
+  </si>
+  <si>
+    <t>4D</t>
   </si>
   <si>
     <t>F1</t>
@@ -1064,21 +1049,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,507 +1081,637 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1">
+        <v>0.0571</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.597</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5071</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>65.8966</v>
+      </c>
+      <c r="G3" s="1">
+        <v>78.6145</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.8531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="1">
+        <v>0.1022</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.2781</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2695</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.5609</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.2306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="1">
+        <v>0.0501</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1819</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1262</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F5" s="1">
+        <v>0.299</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.6332</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B7" s="1">
+        <v>0.0152</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0345</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.0189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.3123</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.0548</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.0571</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.4531</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.597</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.369</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.5071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B8" s="1">
+        <v>0.0008</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0018</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0005</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0009</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.1022</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.084</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.2781</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-0.0132</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B9" s="1">
+        <v>0.0007</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0175</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.0168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0433</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0516</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.0501</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.0408</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.1819</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-0.0085</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.1262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="B10" s="1">
+        <v>0.0012</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0366</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.0354</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.0576</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1117</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="B11" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12.8236</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11.334</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.5452</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42.7566</v>
+      </c>
+      <c r="H11" s="1">
+        <v>12.5311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.0152</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0258</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.0345</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.0105</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.0189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="B12" s="1">
+        <v>0.085</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.1952</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.5681</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.2284</v>
+      </c>
+      <c r="G12" s="1">
+        <v>27.7484</v>
+      </c>
+      <c r="H12" s="1">
+        <v>22.5578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.0008</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.0008</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.0018</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="B13" s="1">
+        <v>16.4598</v>
+      </c>
+      <c r="C13" s="1">
+        <v>29072.3496</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12095.4608</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5262.8042</v>
+      </c>
+      <c r="G13" s="1">
+        <v>277728.0981</v>
+      </c>
+      <c r="H13" s="1">
+        <v>116.7363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B14" s="1">
+        <v>0.0096</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0178</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.0081</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.2739</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1298</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-0.1103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.0002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.0003</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0526</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.233</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.1733</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.2263</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.6467</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.3449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0074</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.2655</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.2571</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.032</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.1422</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0052</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0443</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.0389</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.0091</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.012</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0076</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.1146</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.1062</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.024</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.035</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.0108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0025</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.1095</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.1068</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.029</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1437</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.1113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0164</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0511</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.0341</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.0278</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
         <v>0.0007</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.002</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.0175</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C22" s="1">
+        <v>0.0014</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.0007</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.007</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.0084</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.0013</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.0168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.0012</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.0069</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.0366</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.0057</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.0354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.153</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.413</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12.8236</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.2507</v>
-      </c>
-      <c r="F12" s="1">
-        <v>11.334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.085</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.4875</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7.1952</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.386</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6.5681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>16.4598</v>
-      </c>
-      <c r="C14" s="1">
-        <v>218.4061</v>
-      </c>
-      <c r="D14" s="1">
-        <v>29072.3496</v>
-      </c>
-      <c r="E14" s="1">
-        <v>29.0592</v>
-      </c>
-      <c r="F14" s="1">
-        <v>12095.4608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.0096</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.0056</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.0178</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-0.0038</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.0081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.0001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.0001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.0002</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.0002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.0526</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.056</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.233</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.0036</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.1733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.0074</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.006</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.2655</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-0.0014</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.2571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.0052</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.0038</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.0443</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-0.0014</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.0389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="B23" s="1">
+        <v>0.0046</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0075</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.0029</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.0362</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.0387</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.0076</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.006</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.1146</v>
-      </c>
-      <c r="E20" s="1">
-        <v>-0.0016</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.1062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="B24" s="1">
+        <v>0.0448</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.5064</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.4424</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.031</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.2436</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.2063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.0025</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.003</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.1095</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.0005</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.1068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.0164</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.0241</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B25" s="1">
         <v>0.0511</v>
       </c>
-      <c r="E22" s="1">
-        <v>0.0076</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.0341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.0007</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.0005</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.0014</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-0.0002</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.0007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.0046</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.004</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.0075</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-0.0006</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.0029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.0448</v>
-      </c>
       <c r="C25" s="1">
-        <v>0.0453</v>
+        <v>0.2733</v>
       </c>
       <c r="D25" s="1">
-        <v>0.5064</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.001</v>
+        <v>0.212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
       </c>
       <c r="F25" s="1">
-        <v>0.4424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.0511</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.0456</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.2733</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-0.0049</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.212</v>
+        <v>0.203</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.4925</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.2422</v>
       </c>
     </row>
   </sheetData>
